--- a/ResultsForReport.xlsx
+++ b/ResultsForReport.xlsx
@@ -8,21 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmw13\Documents\GitHub\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD660D5-A844-403F-8980-15838B13146B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6C4C55-7543-4F72-BCBE-F5BAA21A0F85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="5910" windowWidth="14895" windowHeight="10440" activeTab="1" xr2:uid="{223E031C-BC6D-4AC8-8423-87E78239D56B}"/>
+    <workbookView xWindow="13905" yWindow="5760" windowWidth="14895" windowHeight="10440" firstSheet="1" activeTab="2" xr2:uid="{223E031C-BC6D-4AC8-8423-87E78239D56B}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
     <sheet name="ACO2OptXnge500" sheetId="1" r:id="rId2"/>
+    <sheet name="ACOLSCompareE-n51-k5_500" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ACO2OptXnge500!$B$24:$B$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ACO2OptXnge500!$B$59:$B$62</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ACO2OptXnge500!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ACO2OptXnge500!$B$59:$B$62</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">ACO2OptXnge500!$O$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>Runs</t>
   </si>
@@ -112,6 +106,36 @@
   <si>
     <t>Optimal Iteration</t>
   </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>No LS</t>
+  </si>
+  <si>
+    <t>Two Opt</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Pheromone Exchange</t>
+  </si>
+  <si>
+    <t>LK-Search</t>
+  </si>
+  <si>
+    <t>Two-opt Pheromone Exhange</t>
+  </si>
+  <si>
+    <t>Two-opt Exchange</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
 </sst>
 </file>
 
@@ -146,13 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,16 +501,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -746,16 +771,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -995,16 +1020,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1255,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42584B03-EEE1-422C-AD57-2DB88498BF1D}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,16 +1292,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1303,12 +1328,12 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1317,6 +1342,9 @@
       <c r="B3">
         <v>384.678</v>
       </c>
+      <c r="C3">
+        <v>572.55600000000004</v>
+      </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
@@ -1331,6 +1359,9 @@
       <c r="B4">
         <v>384.678</v>
       </c>
+      <c r="C4">
+        <v>572.55600000000004</v>
+      </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -1345,6 +1376,9 @@
       <c r="B5">
         <v>384.678</v>
       </c>
+      <c r="C5">
+        <v>572.55600000000004</v>
+      </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
@@ -1359,6 +1393,9 @@
       <c r="B6">
         <v>384.678</v>
       </c>
+      <c r="C6">
+        <v>572.55600000000004</v>
+      </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
@@ -1373,6 +1410,9 @@
       <c r="B7">
         <v>384.678</v>
       </c>
+      <c r="C7">
+        <v>572.55600000000004</v>
+      </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
@@ -1387,6 +1427,9 @@
       <c r="B8">
         <v>384.678</v>
       </c>
+      <c r="C8">
+        <v>572.55600000000004</v>
+      </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
@@ -1401,6 +1444,9 @@
       <c r="B9">
         <v>384.678</v>
       </c>
+      <c r="C9">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1409,6 +1455,9 @@
       <c r="B10">
         <v>384.678</v>
       </c>
+      <c r="C10">
+        <v>572.55600000000004</v>
+      </c>
       <c r="J10" t="s">
         <v>22</v>
       </c>
@@ -1420,6 +1469,9 @@
       <c r="B11">
         <v>384.678</v>
       </c>
+      <c r="C11">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1428,6 +1480,9 @@
       <c r="B12">
         <v>384.678</v>
       </c>
+      <c r="C12">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1436,6 +1491,9 @@
       <c r="B13">
         <v>384.678</v>
       </c>
+      <c r="C13">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1444,6 +1502,9 @@
       <c r="B14">
         <v>384.678</v>
       </c>
+      <c r="C14">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1452,6 +1513,9 @@
       <c r="B15">
         <v>384.678</v>
       </c>
+      <c r="C15">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1460,6 +1524,9 @@
       <c r="B16">
         <v>384.678</v>
       </c>
+      <c r="C16">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1468,6 +1535,9 @@
       <c r="B17">
         <v>384.678</v>
       </c>
+      <c r="C17">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1476,6 +1546,9 @@
       <c r="B18">
         <v>384.678</v>
       </c>
+      <c r="C18">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1484,6 +1557,9 @@
       <c r="B19">
         <v>384.678</v>
       </c>
+      <c r="C19">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1492,6 +1568,9 @@
       <c r="B20">
         <v>384.678</v>
       </c>
+      <c r="C20">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1500,6 +1579,9 @@
       <c r="B21">
         <v>384.678</v>
       </c>
+      <c r="C21">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1508,6 +1590,9 @@
       <c r="B22">
         <v>384.678</v>
       </c>
+      <c r="C22">
+        <v>572.55600000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1517,9 +1602,9 @@
         <f>AVERAGE(B3:B22)</f>
         <v>384.67799999999994</v>
       </c>
-      <c r="C24" t="e">
+      <c r="C24">
         <f t="shared" ref="C24:H24" si="0">AVERAGE(C3:C22)</f>
-        <v>#DIV/0!</v>
+        <v>572.55600000000027</v>
       </c>
       <c r="D24" t="e">
         <f t="shared" si="0"/>
@@ -1552,7 +1637,7 @@
       </c>
       <c r="C25">
         <f t="shared" ref="C25:H25" si="1">MAX(C3:C22)</f>
-        <v>0</v>
+        <v>572.55600000000004</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -1585,7 +1670,7 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:H26" si="2">MIN(C3:C22)</f>
-        <v>0</v>
+        <v>572.55600000000004</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
@@ -1616,9 +1701,9 @@
         <f>_xlfn.STDEV.S(B3:B22)</f>
         <v>5.8320117209697968E-14</v>
       </c>
-      <c r="C27" t="e">
+      <c r="C27">
         <f t="shared" ref="C27:H27" si="3">_xlfn.STDEV.S(C3:C22)</f>
-        <v>#DIV/0!</v>
+        <v>2.3328046883879187E-13</v>
       </c>
       <c r="D27" t="e">
         <f t="shared" si="3"/>
@@ -1642,16 +1727,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1665,6 +1750,9 @@
       <c r="B31">
         <v>67.438999999999993</v>
       </c>
+      <c r="C31">
+        <v>140.69300000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1673,133 +1761,184 @@
       <c r="B32">
         <v>67.328999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>142.393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
         <v>67.781999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>139.934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34">
         <v>67.195999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>140.70500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35">
         <v>66.983999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>141.02600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36">
         <v>67.908000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>140.374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
       <c r="B37">
         <v>66.838999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>141.27099999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38">
         <v>67.088999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>143.696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
       <c r="B39">
         <v>66.951999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>142.452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
       <c r="B40">
         <v>66.768000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>142.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
       <c r="B41">
         <v>66.159000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>141.07400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
       <c r="B42">
         <v>67.003</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>140.44300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43">
         <v>66.400999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>140.81200000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
       <c r="B44">
         <v>67.081999999999994</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>140.41800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
       <c r="B45">
         <v>66.385999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>140.74299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
       <c r="B46">
         <v>67.150000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>140.53299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
       <c r="B47">
         <v>66.296999999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>140.69200000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
       <c r="B48">
         <v>67.088999999999999</v>
+      </c>
+      <c r="C48">
+        <v>141.08000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,6 +1948,9 @@
       <c r="B49">
         <v>66.802000000000007</v>
       </c>
+      <c r="C49">
+        <v>140.38900000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -1817,6 +1959,9 @@
       <c r="B50">
         <v>67.126000000000005</v>
       </c>
+      <c r="C50">
+        <v>141.077</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1826,9 +1971,9 @@
         <f>AVERAGE(B31:B50)</f>
         <v>66.989049999999992</v>
       </c>
-      <c r="C52" t="e">
+      <c r="C52">
         <f t="shared" ref="C52:H52" si="4">AVERAGE(C31:C50)</f>
-        <v>#DIV/0!</v>
+        <v>141.09375</v>
       </c>
       <c r="D52" t="e">
         <f t="shared" si="4"/>
@@ -1861,7 +2006,7 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:H53" si="5">MAX(C31:C50)</f>
-        <v>0</v>
+        <v>143.696</v>
       </c>
       <c r="D53">
         <f t="shared" si="5"/>
@@ -1894,7 +2039,7 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:H54" si="6">MIN(C31:C50)</f>
-        <v>0</v>
+        <v>139.934</v>
       </c>
       <c r="D54">
         <f t="shared" si="6"/>
@@ -1925,9 +2070,9 @@
         <f>_xlfn.STDEV.S(B31:B50)</f>
         <v>0.45263642607563709</v>
       </c>
-      <c r="C55" t="e">
+      <c r="C55">
         <f t="shared" ref="C55:H55" si="7">_xlfn.STDEV.S(C31:C50)</f>
-        <v>#DIV/0!</v>
+        <v>0.9039199938396949</v>
       </c>
       <c r="D55" t="e">
         <f t="shared" si="7"/>
@@ -1951,16 +2096,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1971,160 +2116,220 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>162172000</v>
+      </c>
+      <c r="C59" s="4">
+        <v>336947000</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>161484000</v>
+      </c>
+      <c r="C60" s="4">
+        <v>337415000</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>161647000</v>
+      </c>
+      <c r="C61" s="4">
+        <v>335519000</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>161710000</v>
+      </c>
+      <c r="C62" s="4">
+        <v>337994000</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>161607000</v>
+      </c>
+      <c r="C63" s="4">
+        <v>338728000</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>162428000</v>
+      </c>
+      <c r="C64" s="4">
+        <v>336953000</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>162144000</v>
+      </c>
+      <c r="C65" s="4">
+        <v>338743000</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>162120000</v>
+      </c>
+      <c r="C66" s="4">
+        <v>338491000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>161782000</v>
+      </c>
+      <c r="C67" s="4">
+        <v>337196000</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>161418000</v>
+      </c>
+      <c r="C68" s="4">
+        <v>337547000</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>160993000</v>
+      </c>
+      <c r="C69" s="4">
+        <v>338365000</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>160490000</v>
+      </c>
+      <c r="C70" s="4">
+        <v>337229000</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>13</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>161724000</v>
+      </c>
+      <c r="C71" s="4">
+        <v>338110000</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>162124000</v>
+      </c>
+      <c r="C72" s="4">
+        <v>336933000</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>161384000</v>
+      </c>
+      <c r="C73" s="4">
+        <v>337902000</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>161558000</v>
+      </c>
+      <c r="C74" s="4">
+        <v>337335000</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>17</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>161344000</v>
+      </c>
+      <c r="C75" s="4">
+        <v>337847000</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>161529000</v>
+      </c>
+      <c r="C76" s="4">
+        <v>338741000</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>161606000</v>
+      </c>
+      <c r="C77" s="4">
+        <v>336970000</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>162039000</v>
+      </c>
+      <c r="C78" s="4">
+        <v>338946000</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,9 +2340,9 @@
         <f>AVERAGE(B59:B78)</f>
         <v>161665150</v>
       </c>
-      <c r="C80" t="e">
+      <c r="C80">
         <f t="shared" ref="C80:H80" si="8">AVERAGE(C59:C78)</f>
-        <v>#DIV/0!</v>
+        <v>337695550</v>
       </c>
       <c r="D80" t="e">
         <f t="shared" si="8"/>
@@ -2170,7 +2375,7 @@
       </c>
       <c r="C81">
         <f t="shared" ref="C81:H81" si="9">MAX(C59:C78)</f>
-        <v>0</v>
+        <v>338946000</v>
       </c>
       <c r="D81">
         <f t="shared" si="9"/>
@@ -2203,7 +2408,7 @@
       </c>
       <c r="C82">
         <f t="shared" ref="C82:H82" si="10">MIN(C59:C78)</f>
-        <v>0</v>
+        <v>335519000</v>
       </c>
       <c r="D82">
         <f t="shared" si="10"/>
@@ -2234,9 +2439,9 @@
         <f>_xlfn.STDEV.S(B59:B78)</f>
         <v>446656.02861120866</v>
       </c>
-      <c r="C83" t="e">
+      <c r="C83">
         <f t="shared" ref="C83:H83" si="11">_xlfn.STDEV.S(C59:C78)</f>
-        <v>#DIV/0!</v>
+        <v>854769.06545754091</v>
       </c>
       <c r="D83" t="e">
         <f t="shared" si="11"/>
@@ -2259,12 +2464,1872 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="e">
+        <f>_xlfn.STDEV.S(B86:B87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:H88" si="12">_xlfn.STDEV.S(C86:C87)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E88" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F88" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="e">
+        <f>_xlfn.STDEV.S(B91:B92)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:H93" si="13">_xlfn.STDEV.S(C91:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="D93" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E93" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F93" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G93" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B90:H90"/>
     <mergeCell ref="A57:H57"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B85:H85"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44E0B-6768-4B6D-B9FA-E66EEF2DC64A}">
+  <dimension ref="A1:L83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C3">
+        <v>532.75</v>
+      </c>
+      <c r="D3">
+        <v>784.06</v>
+      </c>
+      <c r="E3">
+        <v>777.89</v>
+      </c>
+      <c r="H3">
+        <v>532.17999999999995</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C4">
+        <v>532.75</v>
+      </c>
+      <c r="D4">
+        <v>758.39</v>
+      </c>
+      <c r="E4">
+        <v>770.62</v>
+      </c>
+      <c r="H4">
+        <v>532.77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C5">
+        <v>532.75</v>
+      </c>
+      <c r="D5">
+        <v>773.12</v>
+      </c>
+      <c r="E5">
+        <v>754.47</v>
+      </c>
+      <c r="H5">
+        <v>533.86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C6">
+        <v>532.75</v>
+      </c>
+      <c r="D6">
+        <v>788.86</v>
+      </c>
+      <c r="E6">
+        <v>777.09</v>
+      </c>
+      <c r="H6">
+        <v>536.16999999999996</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C7">
+        <v>532.75</v>
+      </c>
+      <c r="D7">
+        <v>764.33</v>
+      </c>
+      <c r="E7">
+        <v>771.99</v>
+      </c>
+      <c r="H7">
+        <v>531.25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C8">
+        <v>532.75</v>
+      </c>
+      <c r="D8">
+        <v>769.19</v>
+      </c>
+      <c r="E8">
+        <v>741.04</v>
+      </c>
+      <c r="H8">
+        <v>531.35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C9">
+        <v>532.75</v>
+      </c>
+      <c r="D9">
+        <v>753.06</v>
+      </c>
+      <c r="E9">
+        <v>741.07</v>
+      </c>
+      <c r="H9">
+        <v>533.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C10">
+        <v>532.75</v>
+      </c>
+      <c r="D10">
+        <v>755.32</v>
+      </c>
+      <c r="E10">
+        <v>755.6</v>
+      </c>
+      <c r="H10">
+        <v>533.91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C11">
+        <v>532.75</v>
+      </c>
+      <c r="D11">
+        <v>733.72</v>
+      </c>
+      <c r="E11">
+        <v>761.42</v>
+      </c>
+      <c r="H11">
+        <v>531.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C12">
+        <v>532.75</v>
+      </c>
+      <c r="D12">
+        <v>761.53</v>
+      </c>
+      <c r="E12">
+        <v>771.03</v>
+      </c>
+      <c r="H12">
+        <v>530.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C13">
+        <v>532.75</v>
+      </c>
+      <c r="D13">
+        <v>771.74</v>
+      </c>
+      <c r="E13">
+        <v>757.26</v>
+      </c>
+      <c r="H13">
+        <v>533.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C14">
+        <v>532.75</v>
+      </c>
+      <c r="D14">
+        <v>758.83</v>
+      </c>
+      <c r="E14">
+        <v>779.52</v>
+      </c>
+      <c r="H14">
+        <v>530.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C15">
+        <v>532.75</v>
+      </c>
+      <c r="D15">
+        <v>769.46</v>
+      </c>
+      <c r="E15">
+        <v>755.7</v>
+      </c>
+      <c r="H15">
+        <v>533.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C16">
+        <v>532.75</v>
+      </c>
+      <c r="D16">
+        <v>712.15</v>
+      </c>
+      <c r="E16">
+        <v>751.03</v>
+      </c>
+      <c r="H16">
+        <v>532.32000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C17">
+        <v>532.75</v>
+      </c>
+      <c r="D17">
+        <v>761.25</v>
+      </c>
+      <c r="E17">
+        <v>760.94</v>
+      </c>
+      <c r="H17">
+        <v>530.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C18">
+        <v>532.75</v>
+      </c>
+      <c r="D18">
+        <v>757.53</v>
+      </c>
+      <c r="E18">
+        <v>755.83</v>
+      </c>
+      <c r="H18">
+        <v>533.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C19">
+        <v>532.75</v>
+      </c>
+      <c r="D19">
+        <v>762.76</v>
+      </c>
+      <c r="E19">
+        <v>788.6</v>
+      </c>
+      <c r="H19">
+        <v>530.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C20">
+        <v>532.75</v>
+      </c>
+      <c r="D20">
+        <v>759.69</v>
+      </c>
+      <c r="E20">
+        <v>775.24</v>
+      </c>
+      <c r="H20">
+        <v>532.17999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C21">
+        <v>532.75</v>
+      </c>
+      <c r="D21">
+        <v>750.5</v>
+      </c>
+      <c r="E21">
+        <v>765.77</v>
+      </c>
+      <c r="H21">
+        <v>531.45000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C22">
+        <v>532.75</v>
+      </c>
+      <c r="D22">
+        <v>778.73</v>
+      </c>
+      <c r="E22">
+        <v>764.73</v>
+      </c>
+      <c r="H22">
+        <v>533.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B3:B22)</f>
+        <v>797.14600000000019</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G24" si="0">AVERAGE(C3:C22)</f>
+        <v>532.75</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>761.21100000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:H24" si="1">AVERAGE(E3:E22)</f>
+        <v>763.8420000000001</v>
+      </c>
+      <c r="F24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>532.34150000000022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <f>MAX(B3:B22)</f>
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:G25" si="2">MAX(C3:C22)</f>
+        <v>532.75</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>788.86</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:H25" si="3">MAX(E3:E22)</f>
+        <v>788.6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>536.16999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <f>MIN(B3:B22)</f>
+        <v>797.14599999999996</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="4">MIN(C3:C22)</f>
+        <v>532.75</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>712.15</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:H26" si="5">MIN(E3:E22)</f>
+        <v>741.04</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>530.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <f>_xlfn.STDEV.S(B3:B22)</f>
+        <v>2.3328046883879187E-13</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:G27" si="6">_xlfn.STDEV.S(C3:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>16.855703673112835</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:H27" si="7">_xlfn.STDEV.S(E3:E22)</f>
+        <v>12.724892554607905</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>1.6474390812153694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>213.02500000000001</v>
+      </c>
+      <c r="C31">
+        <v>1564.3810000000001</v>
+      </c>
+      <c r="D31">
+        <v>212.40899999999999</v>
+      </c>
+      <c r="E31">
+        <v>233.36600000000001</v>
+      </c>
+      <c r="H31">
+        <v>1543.173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>213.74600000000001</v>
+      </c>
+      <c r="C32">
+        <v>1564.19</v>
+      </c>
+      <c r="D32">
+        <v>216.27799999999999</v>
+      </c>
+      <c r="E32">
+        <v>235.1</v>
+      </c>
+      <c r="H32">
+        <v>1547.8889999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>216.06700000000001</v>
+      </c>
+      <c r="C33">
+        <v>1557.874</v>
+      </c>
+      <c r="D33">
+        <v>215.505</v>
+      </c>
+      <c r="E33">
+        <v>236.60400000000001</v>
+      </c>
+      <c r="H33">
+        <v>1546.9449999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>214.691</v>
+      </c>
+      <c r="C34">
+        <v>1552.076</v>
+      </c>
+      <c r="D34">
+        <v>216.459</v>
+      </c>
+      <c r="E34">
+        <v>237.602</v>
+      </c>
+      <c r="H34">
+        <v>1551.7840000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>210.57900000000001</v>
+      </c>
+      <c r="C35">
+        <v>1546.0930000000001</v>
+      </c>
+      <c r="D35">
+        <v>212.15899999999999</v>
+      </c>
+      <c r="E35">
+        <v>232.773</v>
+      </c>
+      <c r="H35">
+        <v>1550.961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>211.51400000000001</v>
+      </c>
+      <c r="C36">
+        <v>1553.8230000000001</v>
+      </c>
+      <c r="D36">
+        <v>212.30199999999999</v>
+      </c>
+      <c r="E36">
+        <v>232.81399999999999</v>
+      </c>
+      <c r="H36">
+        <v>1547.376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>213.626</v>
+      </c>
+      <c r="C37">
+        <v>1547.9010000000001</v>
+      </c>
+      <c r="D37">
+        <v>212.321</v>
+      </c>
+      <c r="E37">
+        <v>232.999</v>
+      </c>
+      <c r="H37">
+        <v>1540.3679999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>214.405</v>
+      </c>
+      <c r="C38">
+        <v>1541.567</v>
+      </c>
+      <c r="D38">
+        <v>212.017</v>
+      </c>
+      <c r="E38">
+        <v>233.172</v>
+      </c>
+      <c r="H38">
+        <v>1548.96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>214.63800000000001</v>
+      </c>
+      <c r="C39">
+        <v>1541.5350000000001</v>
+      </c>
+      <c r="D39">
+        <v>212.17699999999999</v>
+      </c>
+      <c r="E39">
+        <v>233.47200000000001</v>
+      </c>
+      <c r="H39">
+        <v>1543.973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>214.97800000000001</v>
+      </c>
+      <c r="C40">
+        <v>1549.979</v>
+      </c>
+      <c r="D40">
+        <v>212.07400000000001</v>
+      </c>
+      <c r="E40">
+        <v>233.208</v>
+      </c>
+      <c r="H40">
+        <v>1542.3119999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>213.05099999999999</v>
+      </c>
+      <c r="C41">
+        <v>1559.568</v>
+      </c>
+      <c r="D41">
+        <v>212.19399999999999</v>
+      </c>
+      <c r="E41">
+        <v>233.256</v>
+      </c>
+      <c r="H41">
+        <v>1542.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>213.42099999999999</v>
+      </c>
+      <c r="C42">
+        <v>1554.0450000000001</v>
+      </c>
+      <c r="D42">
+        <v>213.61500000000001</v>
+      </c>
+      <c r="E42">
+        <v>233.18100000000001</v>
+      </c>
+      <c r="H42">
+        <v>1545.3679999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>213.96199999999999</v>
+      </c>
+      <c r="C43">
+        <v>1555.4559999999999</v>
+      </c>
+      <c r="D43">
+        <v>214.71799999999999</v>
+      </c>
+      <c r="E43">
+        <v>232.65299999999999</v>
+      </c>
+      <c r="H43">
+        <v>1547.1769999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>214.602</v>
+      </c>
+      <c r="C44">
+        <v>1562.3130000000001</v>
+      </c>
+      <c r="D44">
+        <v>214.11799999999999</v>
+      </c>
+      <c r="E44">
+        <v>233.55799999999999</v>
+      </c>
+      <c r="H44">
+        <v>1548.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>215.64099999999999</v>
+      </c>
+      <c r="C45">
+        <v>1574.5039999999999</v>
+      </c>
+      <c r="D45">
+        <v>214.512</v>
+      </c>
+      <c r="E45">
+        <v>233.56399999999999</v>
+      </c>
+      <c r="H45">
+        <v>1549.683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>213.35900000000001</v>
+      </c>
+      <c r="C46">
+        <v>1617.9839999999999</v>
+      </c>
+      <c r="D46">
+        <v>213.91</v>
+      </c>
+      <c r="E46">
+        <v>233.36799999999999</v>
+      </c>
+      <c r="H46">
+        <v>1551.837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>215.08500000000001</v>
+      </c>
+      <c r="C47">
+        <v>1552.306</v>
+      </c>
+      <c r="D47">
+        <v>214.07900000000001</v>
+      </c>
+      <c r="E47">
+        <v>233.714</v>
+      </c>
+      <c r="H47">
+        <v>1552.8920000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>214.916</v>
+      </c>
+      <c r="C48">
+        <v>1548.25</v>
+      </c>
+      <c r="D48">
+        <v>213.99</v>
+      </c>
+      <c r="E48">
+        <v>233.399</v>
+      </c>
+      <c r="H48">
+        <v>1542.067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>212.114</v>
+      </c>
+      <c r="C49">
+        <v>1546.127</v>
+      </c>
+      <c r="D49">
+        <v>214.148</v>
+      </c>
+      <c r="E49">
+        <v>233.47900000000001</v>
+      </c>
+      <c r="H49">
+        <v>1542.4680000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>213.68299999999999</v>
+      </c>
+      <c r="C50">
+        <v>1541.9880000000001</v>
+      </c>
+      <c r="D50">
+        <v>214.00700000000001</v>
+      </c>
+      <c r="E50">
+        <v>233.49799999999999</v>
+      </c>
+      <c r="H50">
+        <v>1542.4690000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(B31:B50)</f>
+        <v>213.85514999999995</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:H52" si="8">AVERAGE(C31:C50)</f>
+        <v>1556.5980000000002</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="8"/>
+        <v>213.64959999999996</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:H52" si="9">AVERAGE(E31:E50)</f>
+        <v>233.73899999999998</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>1546.4460999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <f>MAX(B31:B50)</f>
+        <v>216.06700000000001</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:H53" si="10">MAX(C31:C50)</f>
+        <v>1617.9839999999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>216.459</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:H53" si="11">MAX(E31:E50)</f>
+        <v>237.602</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>1552.8920000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <f>MIN(B31:B50)</f>
+        <v>210.57900000000001</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:H54" si="12">MIN(C31:C50)</f>
+        <v>1541.5350000000001</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="12"/>
+        <v>212.017</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:H54" si="13">MIN(E31:E50)</f>
+        <v>232.65299999999999</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="13"/>
+        <v>1540.3679999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <f>_xlfn.STDEV.S(B31:B50)</f>
+        <v>1.3625356499440366</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:H55" si="14">_xlfn.STDEV.S(C31:C50)</f>
+        <v>16.827286740667098</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="14"/>
+        <v>1.4118135928842142</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:H55" si="15">_xlfn.STDEV.S(E31:E50)</f>
+        <v>1.2628402824377178</v>
+      </c>
+      <c r="F55" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="15"/>
+        <v>3.8399819750125395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D59" s="4">
+        <v>8996450</v>
+      </c>
+      <c r="E59" s="4">
+        <v>8913410</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2662050000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D60" s="4">
+        <v>9005920</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8919250</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2668760000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D61" s="4">
+        <v>8981130</v>
+      </c>
+      <c r="E61" s="4">
+        <v>8911780</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2664450000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D62" s="4">
+        <v>8991520</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8908170</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2673610000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D63" s="4">
+        <v>8969440</v>
+      </c>
+      <c r="E63" s="4">
+        <v>8903760</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2678030000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D64" s="4">
+        <v>8979340</v>
+      </c>
+      <c r="E64" s="4">
+        <v>8915510</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2671000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D65" s="4">
+        <v>8986580</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8907140</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2657760000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D66" s="4">
+        <v>8998900</v>
+      </c>
+      <c r="E66" s="4">
+        <v>8901800</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2675150000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D67" s="4">
+        <v>8984860</v>
+      </c>
+      <c r="E67" s="4">
+        <v>8920720</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2665790000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D68" s="4">
+        <v>8981100</v>
+      </c>
+      <c r="E68" s="4">
+        <v>8930280</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2663730000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D69" s="4">
+        <v>9006360</v>
+      </c>
+      <c r="E69" s="4">
+        <v>8934570</v>
+      </c>
+      <c r="H69" s="4">
+        <v>2661790000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D70" s="4">
+        <v>8999700</v>
+      </c>
+      <c r="E70" s="4">
+        <v>8919890</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2669690000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D71" s="4">
+        <v>8979400</v>
+      </c>
+      <c r="E71" s="4">
+        <v>8917050</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2669000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C72" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D72" s="4">
+        <v>8976350</v>
+      </c>
+      <c r="E72" s="4">
+        <v>8917230</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2672650000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C73" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D73" s="4">
+        <v>8988930</v>
+      </c>
+      <c r="E73" s="4">
+        <v>8930940</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2676280000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D74" s="4">
+        <v>8994930</v>
+      </c>
+      <c r="E74" s="4">
+        <v>8932260</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2680880000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D75" s="4">
+        <v>9014820</v>
+      </c>
+      <c r="E75" s="4">
+        <v>8930640</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2680400000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C76" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D76" s="4">
+        <v>8982470</v>
+      </c>
+      <c r="E76" s="4">
+        <v>8938600</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2662290000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D77" s="4">
+        <v>8981570</v>
+      </c>
+      <c r="E77" s="4">
+        <v>8929620</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2663170000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78" s="4">
+        <v>7458510</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2663500000</v>
+      </c>
+      <c r="D78" s="4">
+        <v>8989940</v>
+      </c>
+      <c r="E78" s="4">
+        <v>8919150</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2662050000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <f>AVERAGE(B59:B78)</f>
+        <v>7458510</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80:H80" si="16">AVERAGE(C59:C78)</f>
+        <v>2663500000</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="16"/>
+        <v>8989485.5</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:H80" si="17">AVERAGE(E59:E78)</f>
+        <v>8920088.5</v>
+      </c>
+      <c r="F80" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G80" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="17"/>
+        <v>2668926500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <f>MAX(B59:B78)</f>
+        <v>7458510</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:H81" si="18">MAX(C59:C78)</f>
+        <v>2663500000</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="18"/>
+        <v>9014820</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81:H81" si="19">MAX(E59:E78)</f>
+        <v>8938600</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="19"/>
+        <v>2680880000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <f>MIN(B59:B78)</f>
+        <v>7458510</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:H82" si="20">MIN(C59:C78)</f>
+        <v>2663500000</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="20"/>
+        <v>8969440</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ref="E82:H82" si="21">MIN(E59:E78)</f>
+        <v>8901800</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="21"/>
+        <v>2657760000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <f>_xlfn.STDEV.S(B59:B78)</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:H83" si="22">_xlfn.STDEV.S(C59:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="22"/>
+        <v>11546.931456132905</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:H83" si="23">_xlfn.STDEV.S(E59:E78)</f>
+        <v>10734.022287739308</v>
+      </c>
+      <c r="F83" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G83" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="23"/>
+        <v>6864000.8856274728</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ResultsForReport.xlsx
+++ b/ResultsForReport.xlsx
@@ -8,15 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmw13\Documents\GitHub\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6C4C55-7543-4F72-BCBE-F5BAA21A0F85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63D26F-8610-471E-8CD8-C3640078EFE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="5760" windowWidth="14895" windowHeight="10440" firstSheet="1" activeTab="2" xr2:uid="{223E031C-BC6D-4AC8-8423-87E78239D56B}"/>
+    <workbookView xWindow="19860" yWindow="3795" windowWidth="14895" windowHeight="10440" firstSheet="1" activeTab="1" xr2:uid="{223E031C-BC6D-4AC8-8423-87E78239D56B}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
     <sheet name="ACO2OptXnge500" sheetId="1" r:id="rId2"/>
     <sheet name="ACOLSCompareE-n51-k5_500" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'ACOLSCompareE-n51-k5_500'!$B$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'ACOLSCompareE-n51-k5_500'!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'ACOLSCompareE-n51-k5_500'!$G$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'ACOLSCompareE-n51-k5_500'!$G$3:$G$22</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'ACOLSCompareE-n51-k5_500'!$H$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'ACOLSCompareE-n51-k5_500'!$H$3:$H$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'ACOLSCompareE-n51-k5_500'!$C$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'ACOLSCompareE-n51-k5_500'!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'ACOLSCompareE-n51-k5_500'!$D$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'ACOLSCompareE-n51-k5_500'!$D$3:$D$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'ACOLSCompareE-n51-k5_500'!$E$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'ACOLSCompareE-n51-k5_500'!$E$3:$E$22</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'ACOLSCompareE-n51-k5_500'!$F$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'ACOLSCompareE-n51-k5_500'!$F$3:$F$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Runs</t>
   </si>
@@ -136,6 +152,12 @@
   <si>
     <t>Dataset</t>
   </si>
+  <si>
+    <t>Mins</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
 </sst>
 </file>
 
@@ -170,14 +192,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,6 +219,2281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No LS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>797.14599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EB4-4810-A288-3A0AB4C6E00A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Two Opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>532.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EB4-4810-A288-3A0AB4C6E00A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exchange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>784.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>758.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>773.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>788.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>764.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>769.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>755.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>733.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>761.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>771.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>758.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>769.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>712.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>761.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>757.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>762.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>759.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>750.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>778.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EB4-4810-A288-3A0AB4C6E00A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pheromone Exchange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>777.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>770.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>754.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>777.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>771.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>741.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>741.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>755.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>761.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>771.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>757.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>779.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>755.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>751.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>760.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>755.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>788.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>775.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>765.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>764.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EB4-4810-A288-3A0AB4C6E00A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LK-Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5EB4-4810-A288-3A0AB4C6E00A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Two-opt Pheromone Exhange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>529.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>531.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>532.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>533.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>531.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>532.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>532.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>532.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>534.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>533.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>531.45000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5EB4-4810-A288-3A0AB4C6E00A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Two-opt Exchange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACOLSCompareE-n51-k5_500'!$H$3:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>532.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>533.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>536.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>531.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>531.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>533.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>533.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>531.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>533.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>533.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>532.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>533.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>532.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>531.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>533.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5EB4-4810-A288-3A0AB4C6E00A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="763962079"/>
+        <c:axId val="765096463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="763962079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765096463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765096463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763962079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{3F44B87B-6B48-48B0-8436-3DC29605C011}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>No LS</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EA0D7724-5DB5-44ED-A66D-235465177F1D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Two Opt</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EF553569-0F8E-4D0F-9EC9-0E38ED4134C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Exchange</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DBE8ED84-9A4A-4242-A3EE-FF9106B341A5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Pheromone Exchange</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D07D4F23-EF44-49F8-B20C-7331BB5308CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>LK-Search</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{800AF9BE-D197-415F-9EC9-C78B37F0405E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Two-opt Pheromone Exhange</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{423F977B-6EA6-4701-BF78-FD61ACF35EBF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Two-opt Exchange</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEF14DE-F63E-48CB-857F-A21E89F7898B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5448300" y="2805112"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BE0E62-C023-4A2B-9E58-4A97C608B3F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,16 +2802,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -771,16 +3072,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1020,16 +3321,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1280,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42584B03-EEE1-422C-AD57-2DB88498BF1D}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,16 +3593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1328,10 +3629,10 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="6"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -1345,6 +3646,21 @@
       <c r="C3">
         <v>572.55600000000004</v>
       </c>
+      <c r="D3">
+        <v>509.47</v>
+      </c>
+      <c r="E3">
+        <v>840.15</v>
+      </c>
+      <c r="F3">
+        <v>529.9</v>
+      </c>
+      <c r="G3">
+        <v>704.09</v>
+      </c>
+      <c r="H3">
+        <v>859.37300000000005</v>
+      </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
@@ -1362,6 +3678,21 @@
       <c r="C4">
         <v>572.55600000000004</v>
       </c>
+      <c r="D4">
+        <v>509.47</v>
+      </c>
+      <c r="E4">
+        <v>842.1</v>
+      </c>
+      <c r="F4">
+        <v>531.9</v>
+      </c>
+      <c r="G4">
+        <v>705.8</v>
+      </c>
+      <c r="H4">
+        <v>861.10699999999997</v>
+      </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -1379,6 +3710,21 @@
       <c r="C5">
         <v>572.55600000000004</v>
       </c>
+      <c r="D5">
+        <v>509.47</v>
+      </c>
+      <c r="E5">
+        <v>842.46</v>
+      </c>
+      <c r="F5">
+        <v>531.25</v>
+      </c>
+      <c r="G5">
+        <v>706.42</v>
+      </c>
+      <c r="H5">
+        <v>859.16800000000001</v>
+      </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
@@ -1396,6 +3742,21 @@
       <c r="C6">
         <v>572.55600000000004</v>
       </c>
+      <c r="D6">
+        <v>509.47</v>
+      </c>
+      <c r="E6">
+        <v>842.1</v>
+      </c>
+      <c r="F6">
+        <v>532.17999999999995</v>
+      </c>
+      <c r="G6">
+        <v>701.77</v>
+      </c>
+      <c r="H6">
+        <v>864.95500000000004</v>
+      </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
@@ -1413,6 +3774,21 @@
       <c r="C7">
         <v>572.55600000000004</v>
       </c>
+      <c r="D7">
+        <v>509.47</v>
+      </c>
+      <c r="E7">
+        <v>841.72</v>
+      </c>
+      <c r="F7">
+        <v>530.1</v>
+      </c>
+      <c r="G7">
+        <v>698.38</v>
+      </c>
+      <c r="H7">
+        <v>854.57600000000002</v>
+      </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
@@ -1430,6 +3806,21 @@
       <c r="C8">
         <v>572.55600000000004</v>
       </c>
+      <c r="D8">
+        <v>509.47</v>
+      </c>
+      <c r="E8">
+        <v>841.46</v>
+      </c>
+      <c r="F8">
+        <v>532.22</v>
+      </c>
+      <c r="G8">
+        <v>699.5</v>
+      </c>
+      <c r="H8">
+        <v>854.61099999999999</v>
+      </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
@@ -1447,6 +3838,21 @@
       <c r="C9">
         <v>572.55600000000004</v>
       </c>
+      <c r="D9">
+        <v>509.47</v>
+      </c>
+      <c r="E9">
+        <v>840.15</v>
+      </c>
+      <c r="F9">
+        <v>530.1</v>
+      </c>
+      <c r="G9">
+        <v>703.58</v>
+      </c>
+      <c r="H9">
+        <v>853.93399999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1458,6 +3864,21 @@
       <c r="C10">
         <v>572.55600000000004</v>
       </c>
+      <c r="D10">
+        <v>509.47</v>
+      </c>
+      <c r="E10">
+        <v>840.15</v>
+      </c>
+      <c r="F10">
+        <v>532.17999999999995</v>
+      </c>
+      <c r="G10">
+        <v>704.4</v>
+      </c>
+      <c r="H10">
+        <v>861.35599999999999</v>
+      </c>
       <c r="J10" t="s">
         <v>22</v>
       </c>
@@ -1472,6 +3893,21 @@
       <c r="C11">
         <v>572.55600000000004</v>
       </c>
+      <c r="D11">
+        <v>509.47</v>
+      </c>
+      <c r="E11">
+        <v>840.4</v>
+      </c>
+      <c r="F11">
+        <v>530.1</v>
+      </c>
+      <c r="G11">
+        <v>702.87</v>
+      </c>
+      <c r="H11">
+        <v>857.91</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1483,6 +3919,21 @@
       <c r="C12">
         <v>572.55600000000004</v>
       </c>
+      <c r="D12">
+        <v>509.47</v>
+      </c>
+      <c r="E12">
+        <v>841.46</v>
+      </c>
+      <c r="F12">
+        <v>531.25</v>
+      </c>
+      <c r="G12">
+        <v>699.75</v>
+      </c>
+      <c r="H12">
+        <v>860.89499999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1494,6 +3945,21 @@
       <c r="C13">
         <v>572.55600000000004</v>
       </c>
+      <c r="D13">
+        <v>509.47</v>
+      </c>
+      <c r="E13">
+        <v>841.46</v>
+      </c>
+      <c r="F13">
+        <v>532.32000000000005</v>
+      </c>
+      <c r="G13">
+        <v>705.96</v>
+      </c>
+      <c r="H13">
+        <v>860.09400000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1505,6 +3971,21 @@
       <c r="C14">
         <v>572.55600000000004</v>
       </c>
+      <c r="D14">
+        <v>509.47</v>
+      </c>
+      <c r="E14">
+        <v>841.87</v>
+      </c>
+      <c r="F14">
+        <v>533.47</v>
+      </c>
+      <c r="G14">
+        <v>706.73</v>
+      </c>
+      <c r="H14">
+        <v>860.34400000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1516,6 +3997,21 @@
       <c r="C15">
         <v>572.55600000000004</v>
       </c>
+      <c r="D15">
+        <v>509.47</v>
+      </c>
+      <c r="E15">
+        <v>842.1</v>
+      </c>
+      <c r="F15">
+        <v>530.1</v>
+      </c>
+      <c r="G15">
+        <v>704.33</v>
+      </c>
+      <c r="H15">
+        <v>862.86199999999997</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1527,6 +4023,21 @@
       <c r="C16">
         <v>572.55600000000004</v>
       </c>
+      <c r="D16">
+        <v>509.47</v>
+      </c>
+      <c r="E16">
+        <v>841.72</v>
+      </c>
+      <c r="F16">
+        <v>531.35</v>
+      </c>
+      <c r="G16">
+        <v>699.96</v>
+      </c>
+      <c r="H16">
+        <v>851.40499999999997</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1538,6 +4049,21 @@
       <c r="C17">
         <v>572.55600000000004</v>
       </c>
+      <c r="D17">
+        <v>509.47</v>
+      </c>
+      <c r="E17">
+        <v>842.1</v>
+      </c>
+      <c r="F17">
+        <v>532.38</v>
+      </c>
+      <c r="G17">
+        <v>701.94</v>
+      </c>
+      <c r="H17">
+        <v>857.16600000000005</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1549,6 +4075,21 @@
       <c r="C18">
         <v>572.55600000000004</v>
       </c>
+      <c r="D18">
+        <v>509.47</v>
+      </c>
+      <c r="E18">
+        <v>840.15</v>
+      </c>
+      <c r="F18">
+        <v>532.59</v>
+      </c>
+      <c r="G18">
+        <v>705.31</v>
+      </c>
+      <c r="H18">
+        <v>862.97</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1560,6 +4101,21 @@
       <c r="C19">
         <v>572.55600000000004</v>
       </c>
+      <c r="D19">
+        <v>509.47</v>
+      </c>
+      <c r="E19">
+        <v>841.46</v>
+      </c>
+      <c r="F19">
+        <v>532.38</v>
+      </c>
+      <c r="G19">
+        <v>704.79</v>
+      </c>
+      <c r="H19">
+        <v>860.01</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1571,6 +4127,21 @@
       <c r="C20">
         <v>572.55600000000004</v>
       </c>
+      <c r="D20">
+        <v>509.47</v>
+      </c>
+      <c r="E20">
+        <v>840.15</v>
+      </c>
+      <c r="F20">
+        <v>534.85</v>
+      </c>
+      <c r="G20">
+        <v>706.84</v>
+      </c>
+      <c r="H20">
+        <v>865.63800000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1582,6 +4153,21 @@
       <c r="C21">
         <v>572.55600000000004</v>
       </c>
+      <c r="D21">
+        <v>509.47</v>
+      </c>
+      <c r="E21">
+        <v>841.72</v>
+      </c>
+      <c r="F21">
+        <v>533.16999999999996</v>
+      </c>
+      <c r="G21">
+        <v>702.76</v>
+      </c>
+      <c r="H21">
+        <v>862.33299999999997</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1593,6 +4179,21 @@
       <c r="C22">
         <v>572.55600000000004</v>
       </c>
+      <c r="D22">
+        <v>509.47</v>
+      </c>
+      <c r="E22">
+        <v>840.15</v>
+      </c>
+      <c r="F22">
+        <v>531.45000000000005</v>
+      </c>
+      <c r="G22">
+        <v>702.48</v>
+      </c>
+      <c r="H22">
+        <v>858.64300000000003</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1606,25 +4207,25 @@
         <f t="shared" ref="C24:H24" si="0">AVERAGE(C3:C22)</f>
         <v>572.55600000000027</v>
       </c>
-      <c r="D24" t="e">
+      <c r="D24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" t="e">
+        <v>509.47000000000008</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" t="e">
+        <v>841.25149999999996</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" t="e">
+        <v>531.76200000000006</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" t="e">
+        <v>703.38300000000004</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>859.46749999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,23 +4242,23 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>509.47</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>842.46</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>534.85</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>706.84</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>865.63800000000003</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1674,23 +4275,23 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>509.47</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>840.15</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>529.9</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>698.38</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>851.40499999999997</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,38 +4306,38 @@
         <f t="shared" ref="C27:H27" si="3">_xlfn.STDEV.S(C3:C22)</f>
         <v>2.3328046883879187E-13</v>
       </c>
-      <c r="D27" t="e">
+      <c r="D27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" t="e">
+        <v>5.8320117209697968E-14</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" t="e">
+        <v>0.84480003862641706</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" t="e">
+        <v>1.2994314546228101</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" t="e">
+        <v>2.5566859717013957</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.7103921980240782</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1753,6 +4354,21 @@
       <c r="C31">
         <v>140.69300000000001</v>
       </c>
+      <c r="D31">
+        <v>214.67500000000001</v>
+      </c>
+      <c r="E31">
+        <v>337.83600000000001</v>
+      </c>
+      <c r="F31">
+        <v>1614.152</v>
+      </c>
+      <c r="G31">
+        <v>7721.82</v>
+      </c>
+      <c r="H31">
+        <v>22851.035</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1764,8 +4380,23 @@
       <c r="C32">
         <v>142.393</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>215.24799999999999</v>
+      </c>
+      <c r="E32">
+        <v>337.3</v>
+      </c>
+      <c r="F32">
+        <v>1606.164</v>
+      </c>
+      <c r="G32">
+        <v>7680.4610000000002</v>
+      </c>
+      <c r="H32">
+        <v>22993.202000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1775,8 +4406,23 @@
       <c r="C33">
         <v>139.934</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>214.59700000000001</v>
+      </c>
+      <c r="E33">
+        <v>339.161</v>
+      </c>
+      <c r="F33">
+        <v>1589.893</v>
+      </c>
+      <c r="G33">
+        <v>7708.8959999999997</v>
+      </c>
+      <c r="H33">
+        <v>23097.059000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1786,8 +4432,23 @@
       <c r="C34">
         <v>140.70500000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>215.40100000000001</v>
+      </c>
+      <c r="E34">
+        <v>350.22699999999998</v>
+      </c>
+      <c r="F34">
+        <v>1590.3340000000001</v>
+      </c>
+      <c r="G34">
+        <v>7870.027</v>
+      </c>
+      <c r="H34">
+        <v>22904.291000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1797,8 +4458,23 @@
       <c r="C35">
         <v>141.02600000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>216.017</v>
+      </c>
+      <c r="E35">
+        <v>349.60599999999999</v>
+      </c>
+      <c r="F35">
+        <v>1573.9449999999999</v>
+      </c>
+      <c r="G35">
+        <v>7728.4930000000004</v>
+      </c>
+      <c r="H35">
+        <v>23411.614000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1808,8 +4484,23 @@
       <c r="C36">
         <v>140.374</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>214.37</v>
+      </c>
+      <c r="E36">
+        <v>343.54300000000001</v>
+      </c>
+      <c r="F36">
+        <v>1576.3530000000001</v>
+      </c>
+      <c r="G36">
+        <v>7590.7809999999999</v>
+      </c>
+      <c r="H36">
+        <v>23169.977999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1819,8 +4510,23 @@
       <c r="C37">
         <v>141.27099999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>214.96</v>
+      </c>
+      <c r="E37">
+        <v>348.99400000000003</v>
+      </c>
+      <c r="F37">
+        <v>1582.7470000000001</v>
+      </c>
+      <c r="G37">
+        <v>7670.7060000000001</v>
+      </c>
+      <c r="H37">
+        <v>22811.699000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1830,8 +4536,23 @@
       <c r="C38">
         <v>143.696</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>216.28299999999999</v>
+      </c>
+      <c r="E38">
+        <v>345.82600000000002</v>
+      </c>
+      <c r="F38">
+        <v>1585.885</v>
+      </c>
+      <c r="G38">
+        <v>7586.6509999999998</v>
+      </c>
+      <c r="H38">
+        <v>22891.670999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1841,8 +4562,23 @@
       <c r="C39">
         <v>142.452</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>214.375</v>
+      </c>
+      <c r="E39">
+        <v>343.05200000000002</v>
+      </c>
+      <c r="F39">
+        <v>1596.529</v>
+      </c>
+      <c r="G39">
+        <v>7613.1170000000002</v>
+      </c>
+      <c r="H39">
+        <v>23533.512999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1852,8 +4588,23 @@
       <c r="C40">
         <v>142.07</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>215.03800000000001</v>
+      </c>
+      <c r="E40">
+        <v>340.375</v>
+      </c>
+      <c r="F40">
+        <v>1580.25</v>
+      </c>
+      <c r="G40">
+        <v>7745.0060000000003</v>
+      </c>
+      <c r="H40">
+        <v>22951.261999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -1863,8 +4614,23 @@
       <c r="C41">
         <v>141.07400000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>215.453</v>
+      </c>
+      <c r="E41">
+        <v>343.85</v>
+      </c>
+      <c r="F41">
+        <v>1570.9359999999999</v>
+      </c>
+      <c r="G41">
+        <v>7863.6930000000002</v>
+      </c>
+      <c r="H41">
+        <v>22907.054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -1874,8 +4640,23 @@
       <c r="C42">
         <v>140.44300000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>215.142</v>
+      </c>
+      <c r="E42">
+        <v>349.38</v>
+      </c>
+      <c r="F42">
+        <v>1577.0550000000001</v>
+      </c>
+      <c r="G42">
+        <v>7741.9160000000002</v>
+      </c>
+      <c r="H42">
+        <v>22920.136999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -1885,8 +4666,23 @@
       <c r="C43">
         <v>140.81200000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>215.054</v>
+      </c>
+      <c r="E43">
+        <v>349.64600000000002</v>
+      </c>
+      <c r="F43">
+        <v>1565.7919999999999</v>
+      </c>
+      <c r="G43">
+        <v>7966.3850000000002</v>
+      </c>
+      <c r="H43">
+        <v>23091.064999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -1896,8 +4692,23 @@
       <c r="C44">
         <v>140.41800000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>216.017</v>
+      </c>
+      <c r="E44">
+        <v>350.30799999999999</v>
+      </c>
+      <c r="F44">
+        <v>1575.0050000000001</v>
+      </c>
+      <c r="G44">
+        <v>7696.1229999999996</v>
+      </c>
+      <c r="H44">
+        <v>22952.577000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1907,8 +4718,23 @@
       <c r="C45">
         <v>140.74299999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>215.21600000000001</v>
+      </c>
+      <c r="E45">
+        <v>345.12700000000001</v>
+      </c>
+      <c r="F45">
+        <v>1575.825</v>
+      </c>
+      <c r="G45">
+        <v>7817.683</v>
+      </c>
+      <c r="H45">
+        <v>22861.663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1918,8 +4744,23 @@
       <c r="C46">
         <v>140.53299999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>213.023</v>
+      </c>
+      <c r="E46">
+        <v>334.82799999999997</v>
+      </c>
+      <c r="F46">
+        <v>1570.78</v>
+      </c>
+      <c r="G46">
+        <v>7629.14</v>
+      </c>
+      <c r="H46">
+        <v>23866.544000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
@@ -1929,8 +4770,23 @@
       <c r="C47">
         <v>140.69200000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>214.69800000000001</v>
+      </c>
+      <c r="E47">
+        <v>338.78699999999998</v>
+      </c>
+      <c r="F47">
+        <v>1564.3409999999999</v>
+      </c>
+      <c r="G47">
+        <v>7659.6319999999996</v>
+      </c>
+      <c r="H47">
+        <v>22912.998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -1939,6 +4795,21 @@
       </c>
       <c r="C48">
         <v>141.08000000000001</v>
+      </c>
+      <c r="D48">
+        <v>214.25</v>
+      </c>
+      <c r="E48">
+        <v>340.488</v>
+      </c>
+      <c r="F48">
+        <v>1572.962</v>
+      </c>
+      <c r="G48">
+        <v>7668.1909999999998</v>
+      </c>
+      <c r="H48">
+        <v>22965.925999999999</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,6 +4822,21 @@
       <c r="C49">
         <v>140.38900000000001</v>
       </c>
+      <c r="D49">
+        <v>213.81399999999999</v>
+      </c>
+      <c r="E49">
+        <v>338.053</v>
+      </c>
+      <c r="F49">
+        <v>1572.192</v>
+      </c>
+      <c r="G49">
+        <v>7623.1760000000004</v>
+      </c>
+      <c r="H49">
+        <v>22922.595000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -1962,6 +4848,21 @@
       <c r="C50">
         <v>141.077</v>
       </c>
+      <c r="D50">
+        <v>214.28</v>
+      </c>
+      <c r="E50">
+        <v>339.70699999999999</v>
+      </c>
+      <c r="F50">
+        <v>1565.885</v>
+      </c>
+      <c r="G50">
+        <v>7616.3969999999999</v>
+      </c>
+      <c r="H50">
+        <v>23047.916000000001</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1975,25 +4876,25 @@
         <f t="shared" ref="C52:H52" si="4">AVERAGE(C31:C50)</f>
         <v>141.09375</v>
       </c>
-      <c r="D52" t="e">
+      <c r="D52">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" t="e">
+        <v>214.89554999999996</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" t="e">
+        <v>343.30470000000003</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" t="e">
+        <v>1580.3512500000002</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" t="e">
+        <v>7709.9146999999994</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>23053.189950000004</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2010,23 +4911,23 @@
       </c>
       <c r="D53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>216.28299999999999</v>
       </c>
       <c r="E53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>350.30799999999999</v>
       </c>
       <c r="F53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1614.152</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7966.3850000000002</v>
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>23866.544000000002</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,23 +4944,23 @@
       </c>
       <c r="D54">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>213.023</v>
       </c>
       <c r="E54">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>334.82799999999997</v>
       </c>
       <c r="F54">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1564.3409999999999</v>
       </c>
       <c r="G54">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7586.6509999999998</v>
       </c>
       <c r="H54">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22811.699000000001</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2074,524 +4975,948 @@
         <f t="shared" ref="C55:H55" si="7">_xlfn.STDEV.S(C31:C50)</f>
         <v>0.9039199938396949</v>
       </c>
-      <c r="D55" t="e">
+      <c r="D55">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E55" t="e">
+        <v>0.77932335529307839</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" t="e">
+        <v>5.0715625859450775</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G55" t="e">
+        <v>13.364414515992225</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" t="e">
+        <v>102.0404210812146</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>264.51235307049882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="5">
+        <f>B52/60</f>
+        <v>1.1164841666666665</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" ref="C56:G56" si="8">C52/60</f>
+        <v>2.3515625</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="8"/>
+        <v>3.5815924999999993</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="8"/>
+        <v>5.7217450000000003</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="8"/>
+        <v>26.339187500000001</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="8"/>
+        <v>128.49857833333331</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" ref="H56" si="9">H52/60</f>
+        <v>384.21983250000005</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="5">
+        <f>B56/60</f>
+        <v>1.8608069444444441E-2</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" ref="C57:G57" si="10">C56/60</f>
+        <v>3.9192708333333333E-2</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="10"/>
+        <v>5.9693208333333324E-2</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="10"/>
+        <v>9.5362416666666672E-2</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="10"/>
+        <v>0.43898645833333333</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="10"/>
+        <v>2.1416429722222219</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" ref="H57" si="11">H56/60</f>
+        <v>6.4036638750000012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2">
-        <v>162172000</v>
-      </c>
-      <c r="C59" s="4">
-        <v>336947000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" s="2">
-        <v>161484000</v>
-      </c>
-      <c r="C60" s="4">
-        <v>337415000</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2">
-        <v>161647000</v>
-      </c>
-      <c r="C61" s="4">
-        <v>335519000</v>
+        <v>162172000</v>
+      </c>
+      <c r="C61" s="3">
+        <v>336947000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>488745000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>728049000</v>
+      </c>
+      <c r="F61">
+        <v>2686810000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>10278800000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>25528900000</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" s="2">
-        <v>161710000</v>
-      </c>
-      <c r="C62" s="4">
-        <v>337994000</v>
+        <v>161484000</v>
+      </c>
+      <c r="C62" s="3">
+        <v>337415000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>492435000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>733088000</v>
+      </c>
+      <c r="F62">
+        <v>2685170000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10291000000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>25613200000</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2">
-        <v>161607000</v>
-      </c>
-      <c r="C63" s="4">
-        <v>338728000</v>
+        <v>161647000</v>
+      </c>
+      <c r="C63" s="3">
+        <v>335519000</v>
+      </c>
+      <c r="D63" s="3">
+        <v>490855000</v>
+      </c>
+      <c r="E63" s="3">
+        <v>728956000</v>
+      </c>
+      <c r="F63">
+        <v>2676730000</v>
+      </c>
+      <c r="G63" s="3">
+        <v>10273100000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>25611800000</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>162428000</v>
-      </c>
-      <c r="C64" s="4">
-        <v>336953000</v>
+        <v>161710000</v>
+      </c>
+      <c r="C64" s="3">
+        <v>337994000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>491496000</v>
+      </c>
+      <c r="E64" s="3">
+        <v>733059000</v>
+      </c>
+      <c r="F64">
+        <v>2670860000</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10304400000</v>
+      </c>
+      <c r="H64" s="3">
+        <v>25646600000</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2">
-        <v>162144000</v>
-      </c>
-      <c r="C65" s="4">
-        <v>338743000</v>
+        <v>161607000</v>
+      </c>
+      <c r="C65" s="3">
+        <v>338728000</v>
+      </c>
+      <c r="D65" s="3">
+        <v>494264000</v>
+      </c>
+      <c r="E65" s="3">
+        <v>732098000</v>
+      </c>
+      <c r="F65">
+        <v>2670680000</v>
+      </c>
+      <c r="G65" s="3">
+        <v>10244900000</v>
+      </c>
+      <c r="H65" s="3">
+        <v>25636900000</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>162120000</v>
-      </c>
-      <c r="C66" s="4">
-        <v>338491000</v>
+        <v>162428000</v>
+      </c>
+      <c r="C66" s="3">
+        <v>336953000</v>
+      </c>
+      <c r="D66" s="3">
+        <v>490412000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>731005000</v>
+      </c>
+      <c r="F66">
+        <v>2688890000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10215900000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>25783900000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2">
-        <v>161782000</v>
-      </c>
-      <c r="C67" s="4">
-        <v>337196000</v>
+        <v>162144000</v>
+      </c>
+      <c r="C67" s="3">
+        <v>338743000</v>
+      </c>
+      <c r="D67" s="3">
+        <v>491306000</v>
+      </c>
+      <c r="E67" s="3">
+        <v>731432000</v>
+      </c>
+      <c r="F67">
+        <v>2696500000</v>
+      </c>
+      <c r="G67" s="3">
+        <v>10344000000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>25621900000</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" s="2">
-        <v>161418000</v>
-      </c>
-      <c r="C68" s="4">
-        <v>337547000</v>
+        <v>162120000</v>
+      </c>
+      <c r="C68" s="3">
+        <v>338491000</v>
+      </c>
+      <c r="D68" s="3">
+        <v>492108000</v>
+      </c>
+      <c r="E68" s="3">
+        <v>734880000</v>
+      </c>
+      <c r="F68">
+        <v>2679740000</v>
+      </c>
+      <c r="G68" s="3">
+        <v>10215200000</v>
+      </c>
+      <c r="H68" s="3">
+        <v>25657600000</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2">
-        <v>160993000</v>
-      </c>
-      <c r="C69" s="4">
-        <v>338365000</v>
+        <v>161782000</v>
+      </c>
+      <c r="C69" s="3">
+        <v>337196000</v>
+      </c>
+      <c r="D69" s="3">
+        <v>489967000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>730617000</v>
+      </c>
+      <c r="F69">
+        <v>2699210000</v>
+      </c>
+      <c r="G69" s="3">
+        <v>10257600000</v>
+      </c>
+      <c r="H69" s="3">
+        <v>25576500000</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2">
-        <v>160490000</v>
-      </c>
-      <c r="C70" s="4">
-        <v>337229000</v>
+        <v>161418000</v>
+      </c>
+      <c r="C70" s="3">
+        <v>337547000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>488706000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>729326000</v>
+      </c>
+      <c r="F70">
+        <v>2685850000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>10307100000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>25674200000</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2">
-        <v>161724000</v>
-      </c>
-      <c r="C71" s="4">
-        <v>338110000</v>
+        <v>160993000</v>
+      </c>
+      <c r="C71" s="3">
+        <v>338365000</v>
+      </c>
+      <c r="D71" s="3">
+        <v>492370000</v>
+      </c>
+      <c r="E71" s="3">
+        <v>731867000</v>
+      </c>
+      <c r="F71">
+        <v>2680020000</v>
+      </c>
+      <c r="G71" s="3">
+        <v>10281500000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>25744800000</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" s="2">
-        <v>162124000</v>
-      </c>
-      <c r="C72" s="4">
-        <v>336933000</v>
+        <v>160490000</v>
+      </c>
+      <c r="C72" s="3">
+        <v>337229000</v>
+      </c>
+      <c r="D72" s="3">
+        <v>491937000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>731276000</v>
+      </c>
+      <c r="F72">
+        <v>2691460000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>10302500000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>25558400000</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B73" s="2">
-        <v>161384000</v>
-      </c>
-      <c r="C73" s="4">
-        <v>337902000</v>
+        <v>161724000</v>
+      </c>
+      <c r="C73" s="3">
+        <v>338110000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>490546000</v>
+      </c>
+      <c r="E73" s="3">
+        <v>732870000</v>
+      </c>
+      <c r="F73">
+        <v>2668380000</v>
+      </c>
+      <c r="G73" s="3">
+        <v>10267800000</v>
+      </c>
+      <c r="H73" s="3">
+        <v>25701800000</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2">
-        <v>161558000</v>
-      </c>
-      <c r="C74" s="4">
-        <v>337335000</v>
+        <v>162124000</v>
+      </c>
+      <c r="C74" s="3">
+        <v>336933000</v>
+      </c>
+      <c r="D74" s="3">
+        <v>493297000</v>
+      </c>
+      <c r="E74" s="3">
+        <v>734192000</v>
+      </c>
+      <c r="F74">
+        <v>2685460000</v>
+      </c>
+      <c r="G74" s="3">
+        <v>10306300000</v>
+      </c>
+      <c r="H74" s="3">
+        <v>25647400000</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B75" s="2">
-        <v>161344000</v>
-      </c>
-      <c r="C75" s="4">
-        <v>337847000</v>
+        <v>161384000</v>
+      </c>
+      <c r="C75" s="3">
+        <v>337902000</v>
+      </c>
+      <c r="D75" s="3">
+        <v>492318000</v>
+      </c>
+      <c r="E75" s="3">
+        <v>730444000</v>
+      </c>
+      <c r="F75">
+        <v>2689050000</v>
+      </c>
+      <c r="G75" s="3">
+        <v>10315800000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>25623800000</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2">
-        <v>161529000</v>
-      </c>
-      <c r="C76" s="4">
-        <v>338741000</v>
+        <v>161558000</v>
+      </c>
+      <c r="C76" s="3">
+        <v>337335000</v>
+      </c>
+      <c r="D76" s="3">
+        <v>486035000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>728626000</v>
+      </c>
+      <c r="F76">
+        <v>2680190000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>10203300000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>25911800000</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B77" s="2">
-        <v>161606000</v>
-      </c>
-      <c r="C77" s="4">
-        <v>336970000</v>
+        <v>161344000</v>
+      </c>
+      <c r="C77" s="3">
+        <v>337847000</v>
+      </c>
+      <c r="D77" s="3">
+        <v>491515000</v>
+      </c>
+      <c r="E77" s="3">
+        <v>729514000</v>
+      </c>
+      <c r="F77">
+        <v>2666200000</v>
+      </c>
+      <c r="G77" s="3">
+        <v>10319000000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>25658500000</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>18</v>
+      </c>
+      <c r="B78" s="2">
+        <v>161529000</v>
+      </c>
+      <c r="C78" s="3">
+        <v>338741000</v>
+      </c>
+      <c r="D78" s="3">
+        <v>489526000</v>
+      </c>
+      <c r="E78" s="3">
+        <v>737247000</v>
+      </c>
+      <c r="F78">
+        <v>2683410000</v>
+      </c>
+      <c r="G78" s="3">
+        <v>10325200000</v>
+      </c>
+      <c r="H78" s="3">
+        <v>25564500000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>19</v>
+      </c>
+      <c r="B79" s="2">
+        <v>161606000</v>
+      </c>
+      <c r="C79" s="3">
+        <v>336970000</v>
+      </c>
+      <c r="D79" s="3">
+        <v>488930000</v>
+      </c>
+      <c r="E79" s="3">
+        <v>729993000</v>
+      </c>
+      <c r="F79">
+        <v>2682390000</v>
+      </c>
+      <c r="G79" s="3">
+        <v>10257900000</v>
+      </c>
+      <c r="H79" s="3">
+        <v>25750500000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>20</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B80" s="2">
         <v>162039000</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C80" s="3">
         <v>338946000</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <f>AVERAGE(B59:B78)</f>
-        <v>161665150</v>
-      </c>
-      <c r="C80">
-        <f t="shared" ref="C80:H80" si="8">AVERAGE(C59:C78)</f>
-        <v>337695550</v>
-      </c>
-      <c r="D80" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E80" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F80" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G80" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81">
-        <f>MAX(B59:B78)</f>
-        <v>162428000</v>
-      </c>
-      <c r="C81">
-        <f t="shared" ref="C81:H81" si="9">MAX(C59:C78)</f>
-        <v>338946000</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="D80" s="3">
+        <v>490111000</v>
+      </c>
+      <c r="E80" s="3">
+        <v>732556000</v>
+      </c>
+      <c r="F80">
+        <v>2669740000</v>
+      </c>
+      <c r="G80" s="3">
+        <v>10255300000</v>
+      </c>
+      <c r="H80" s="3">
+        <v>25492400000</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <f>MIN(B59:B78)</f>
-        <v>160490000</v>
+        <f>AVERAGE(B61:B80)</f>
+        <v>161665150</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:H82" si="10">MIN(C59:C78)</f>
-        <v>335519000</v>
+        <f t="shared" ref="C82:H82" si="12">AVERAGE(C61:C80)</f>
+        <v>337695550</v>
       </c>
       <c r="D82">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>490843950</v>
       </c>
       <c r="E82">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>731554750</v>
       </c>
       <c r="F82">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2681837000</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10278330000</v>
       </c>
       <c r="H82">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>25650270000</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f>MAX(B61:B80)</f>
+        <v>162428000</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:H83" si="13">MAX(C61:C80)</f>
+        <v>338946000</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="13"/>
+        <v>494264000</v>
+      </c>
+      <c r="E83" s="3">
+        <f>MAX(E61:E80)</f>
+        <v>737247000</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="13"/>
+        <v>2699210000</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>10344000000</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="13"/>
+        <v>25911800000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <f>MIN(B61:B80)</f>
+        <v>160490000</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:H84" si="14">MIN(C61:C80)</f>
+        <v>335519000</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="14"/>
+        <v>486035000</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="14"/>
+        <v>728049000</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="14"/>
+        <v>2666200000</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="14"/>
+        <v>10203300000</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="14"/>
+        <v>25492400000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>4</v>
       </c>
-      <c r="B83">
-        <f>_xlfn.STDEV.S(B59:B78)</f>
+      <c r="B85">
+        <f>_xlfn.STDEV.S(B61:B80)</f>
         <v>446656.02861120866</v>
       </c>
-      <c r="C83">
-        <f t="shared" ref="C83:H83" si="11">_xlfn.STDEV.S(C59:C78)</f>
+      <c r="C85">
+        <f t="shared" ref="C85:H85" si="15">_xlfn.STDEV.S(C61:C80)</f>
         <v>854769.06545754091</v>
       </c>
-      <c r="D83" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E83" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G83" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+      <c r="D85">
+        <f t="shared" si="15"/>
+        <v>1887816.7416356916</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="15"/>
+        <v>2292473.4946524925</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="15"/>
+        <v>9269245.1858708244</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="15"/>
+        <v>38904580.977728464</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="15"/>
+        <v>95707521.01557833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>9.5</v>
-      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>11.5</v>
+      </c>
+      <c r="C88">
+        <v>11.5</v>
+      </c>
+      <c r="D88">
+        <v>11.5</v>
+      </c>
+      <c r="E88">
+        <v>11.5</v>
+      </c>
+      <c r="F88">
+        <v>11.5</v>
+      </c>
+      <c r="G88">
+        <v>11.5</v>
+      </c>
+      <c r="H88">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>9.5</v>
+      </c>
+      <c r="C89">
+        <v>9.5</v>
+      </c>
+      <c r="D89">
+        <v>9.5</v>
+      </c>
+      <c r="E89">
+        <v>9.5</v>
+      </c>
+      <c r="F89">
+        <v>9.5</v>
+      </c>
+      <c r="G89">
+        <v>9.5</v>
+      </c>
+      <c r="H89">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>4</v>
       </c>
-      <c r="B88" t="e">
-        <f>_xlfn.STDEV.S(B86:B87)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C88">
-        <f t="shared" ref="C88:H88" si="12">_xlfn.STDEV.S(C86:C87)</f>
+      <c r="B90">
+        <f>_xlfn.STDEV.S(B88:B89)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="D88" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E88" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G88" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+      <c r="C90">
+        <f t="shared" ref="C90:H90" si="16">_xlfn.STDEV.S(C88:C89)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="16"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="16"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="16"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="16"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="16"/>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>0.8</v>
-      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0.8</v>
+      </c>
+      <c r="E93">
+        <v>0.9</v>
+      </c>
+      <c r="F93">
+        <v>1.4</v>
+      </c>
+      <c r="G93">
+        <v>1.8</v>
+      </c>
+      <c r="H93">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>0.8</v>
+      </c>
+      <c r="E94">
+        <v>0.9</v>
+      </c>
+      <c r="F94">
+        <v>1.2</v>
+      </c>
+      <c r="G94">
+        <v>1.6</v>
+      </c>
+      <c r="H94">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>4</v>
       </c>
-      <c r="B93" t="e">
-        <f>_xlfn.STDEV.S(B91:B92)</f>
+      <c r="B95" t="e">
+        <f>_xlfn.STDEV.S(B93:B94)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C93">
-        <f t="shared" ref="C93:H93" si="13">_xlfn.STDEV.S(C91:C92)</f>
+      <c r="C95">
+        <f t="shared" ref="C95:H95" si="17">_xlfn.STDEV.S(C93:C94)</f>
         <v>0</v>
       </c>
-      <c r="D93" t="e">
-        <f t="shared" si="13"/>
+      <c r="D95" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E93" t="e">
-        <f t="shared" si="13"/>
+      <c r="E95">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F95" t="e">
+        <f>_xlfn.STDEV.S(F93:F93)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F93" t="e">
-        <f t="shared" si="13"/>
+      <c r="G95" t="e">
+        <f>_xlfn.STDEV.S(G93:G93)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G93" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="H95">
+        <f t="shared" si="17"/>
+        <v>0.21213203435596428</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="A57:H57"/>
+  <mergeCells count="4">
+    <mergeCell ref="A59:H59"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B85:H85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2601,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44E0B-6768-4B6D-B9FA-E66EEF2DC64A}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G22"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,16 +5936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2647,10 +5972,10 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2668,6 +5993,9 @@
       <c r="E3">
         <v>777.89</v>
       </c>
+      <c r="G3">
+        <v>529.9</v>
+      </c>
       <c r="H3">
         <v>532.17999999999995</v>
       </c>
@@ -2694,6 +6022,9 @@
       <c r="E4">
         <v>770.62</v>
       </c>
+      <c r="G4">
+        <v>531.9</v>
+      </c>
       <c r="H4">
         <v>532.77</v>
       </c>
@@ -2720,6 +6051,9 @@
       <c r="E5">
         <v>754.47</v>
       </c>
+      <c r="G5">
+        <v>531.25</v>
+      </c>
       <c r="H5">
         <v>533.86</v>
       </c>
@@ -2746,6 +6080,9 @@
       <c r="E6">
         <v>777.09</v>
       </c>
+      <c r="G6">
+        <v>532.17999999999995</v>
+      </c>
       <c r="H6">
         <v>536.16999999999996</v>
       </c>
@@ -2772,6 +6109,9 @@
       <c r="E7">
         <v>771.99</v>
       </c>
+      <c r="G7">
+        <v>530.1</v>
+      </c>
       <c r="H7">
         <v>531.25</v>
       </c>
@@ -2798,6 +6138,9 @@
       <c r="E8">
         <v>741.04</v>
       </c>
+      <c r="G8">
+        <v>532.22</v>
+      </c>
       <c r="H8">
         <v>531.35</v>
       </c>
@@ -2824,6 +6167,9 @@
       <c r="E9">
         <v>741.07</v>
       </c>
+      <c r="G9">
+        <v>530.1</v>
+      </c>
       <c r="H9">
         <v>533.47</v>
       </c>
@@ -2844,6 +6190,9 @@
       <c r="E10">
         <v>755.6</v>
       </c>
+      <c r="G10">
+        <v>532.17999999999995</v>
+      </c>
       <c r="H10">
         <v>533.91</v>
       </c>
@@ -2870,6 +6219,9 @@
       <c r="E11">
         <v>761.42</v>
       </c>
+      <c r="G11">
+        <v>530.1</v>
+      </c>
       <c r="H11">
         <v>531.25</v>
       </c>
@@ -2890,6 +6242,9 @@
       <c r="E12">
         <v>771.03</v>
       </c>
+      <c r="G12">
+        <v>531.25</v>
+      </c>
       <c r="H12">
         <v>530.1</v>
       </c>
@@ -2910,6 +6265,9 @@
       <c r="E13">
         <v>757.26</v>
       </c>
+      <c r="G13">
+        <v>532.32000000000005</v>
+      </c>
       <c r="H13">
         <v>533.73</v>
       </c>
@@ -2930,6 +6288,9 @@
       <c r="E14">
         <v>779.52</v>
       </c>
+      <c r="G14">
+        <v>533.47</v>
+      </c>
       <c r="H14">
         <v>530.1</v>
       </c>
@@ -2950,6 +6311,9 @@
       <c r="E15">
         <v>755.7</v>
       </c>
+      <c r="G15">
+        <v>530.1</v>
+      </c>
       <c r="H15">
         <v>533.91</v>
       </c>
@@ -2970,6 +6334,9 @@
       <c r="E16">
         <v>751.03</v>
       </c>
+      <c r="G16">
+        <v>531.35</v>
+      </c>
       <c r="H16">
         <v>532.32000000000005</v>
       </c>
@@ -2990,6 +6357,9 @@
       <c r="E17">
         <v>760.94</v>
       </c>
+      <c r="G17">
+        <v>532.38</v>
+      </c>
       <c r="H17">
         <v>530.1</v>
       </c>
@@ -3010,6 +6380,9 @@
       <c r="E18">
         <v>755.83</v>
       </c>
+      <c r="G18">
+        <v>532.59</v>
+      </c>
       <c r="H18">
         <v>533.53</v>
       </c>
@@ -3030,6 +6403,9 @@
       <c r="E19">
         <v>788.6</v>
       </c>
+      <c r="G19">
+        <v>532.38</v>
+      </c>
       <c r="H19">
         <v>530.1</v>
       </c>
@@ -3050,6 +6426,9 @@
       <c r="E20">
         <v>775.24</v>
       </c>
+      <c r="G20">
+        <v>534.85</v>
+      </c>
       <c r="H20">
         <v>532.17999999999995</v>
       </c>
@@ -3070,6 +6449,9 @@
       <c r="E21">
         <v>765.77</v>
       </c>
+      <c r="G21">
+        <v>533.16999999999996</v>
+      </c>
       <c r="H21">
         <v>531.45000000000005</v>
       </c>
@@ -3090,6 +6472,9 @@
       <c r="E22">
         <v>764.73</v>
       </c>
+      <c r="G22">
+        <v>531.45000000000005</v>
+      </c>
       <c r="H22">
         <v>533.1</v>
       </c>
@@ -3103,7 +6488,7 @@
         <v>797.14600000000019</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:G24" si="0">AVERAGE(C3:C22)</f>
+        <f t="shared" ref="C24:D24" si="0">AVERAGE(C3:C22)</f>
         <v>532.75</v>
       </c>
       <c r="D24">
@@ -3118,9 +6503,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" t="e">
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>531.76200000000006</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
@@ -3136,7 +6521,7 @@
         <v>797.14599999999996</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:G25" si="2">MAX(C3:C22)</f>
+        <f t="shared" ref="C25:D25" si="2">MAX(C3:C22)</f>
         <v>532.75</v>
       </c>
       <c r="D25">
@@ -3153,7 +6538,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>534.85</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
@@ -3169,7 +6554,7 @@
         <v>797.14599999999996</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:G26" si="4">MIN(C3:C22)</f>
+        <f t="shared" ref="C26:D26" si="4">MIN(C3:C22)</f>
         <v>532.75</v>
       </c>
       <c r="D26">
@@ -3186,7 +6571,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>529.9</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
@@ -3202,7 +6587,7 @@
         <v>2.3328046883879187E-13</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:G27" si="6">_xlfn.STDEV.S(C3:C22)</f>
+        <f t="shared" ref="C27:D27" si="6">_xlfn.STDEV.S(C3:C22)</f>
         <v>0</v>
       </c>
       <c r="D27">
@@ -3217,9 +6602,9 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" t="e">
+      <c r="G27">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.2994314546228101</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
@@ -3227,16 +6612,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3259,6 +6644,9 @@
       <c r="E31">
         <v>233.36600000000001</v>
       </c>
+      <c r="G31">
+        <v>1614.152</v>
+      </c>
       <c r="H31">
         <v>1543.173</v>
       </c>
@@ -3279,6 +6667,9 @@
       <c r="E32">
         <v>235.1</v>
       </c>
+      <c r="G32">
+        <v>1606.164</v>
+      </c>
       <c r="H32">
         <v>1547.8889999999999</v>
       </c>
@@ -3299,6 +6690,9 @@
       <c r="E33">
         <v>236.60400000000001</v>
       </c>
+      <c r="G33">
+        <v>1589.893</v>
+      </c>
       <c r="H33">
         <v>1546.9449999999999</v>
       </c>
@@ -3319,6 +6713,9 @@
       <c r="E34">
         <v>237.602</v>
       </c>
+      <c r="G34">
+        <v>1590.3340000000001</v>
+      </c>
       <c r="H34">
         <v>1551.7840000000001</v>
       </c>
@@ -3339,6 +6736,9 @@
       <c r="E35">
         <v>232.773</v>
       </c>
+      <c r="G35">
+        <v>1573.9449999999999</v>
+      </c>
       <c r="H35">
         <v>1550.961</v>
       </c>
@@ -3359,6 +6759,9 @@
       <c r="E36">
         <v>232.81399999999999</v>
       </c>
+      <c r="G36">
+        <v>1576.3530000000001</v>
+      </c>
       <c r="H36">
         <v>1547.376</v>
       </c>
@@ -3379,6 +6782,9 @@
       <c r="E37">
         <v>232.999</v>
       </c>
+      <c r="G37">
+        <v>1582.7470000000001</v>
+      </c>
       <c r="H37">
         <v>1540.3679999999999</v>
       </c>
@@ -3399,6 +6805,9 @@
       <c r="E38">
         <v>233.172</v>
       </c>
+      <c r="G38">
+        <v>1585.885</v>
+      </c>
       <c r="H38">
         <v>1548.96</v>
       </c>
@@ -3419,6 +6828,9 @@
       <c r="E39">
         <v>233.47200000000001</v>
       </c>
+      <c r="G39">
+        <v>1596.529</v>
+      </c>
       <c r="H39">
         <v>1543.973</v>
       </c>
@@ -3439,6 +6851,9 @@
       <c r="E40">
         <v>233.208</v>
       </c>
+      <c r="G40">
+        <v>1580.25</v>
+      </c>
       <c r="H40">
         <v>1542.3119999999999</v>
       </c>
@@ -3459,6 +6874,9 @@
       <c r="E41">
         <v>233.256</v>
       </c>
+      <c r="G41">
+        <v>1570.9359999999999</v>
+      </c>
       <c r="H41">
         <v>1542.79</v>
       </c>
@@ -3479,6 +6897,9 @@
       <c r="E42">
         <v>233.18100000000001</v>
       </c>
+      <c r="G42">
+        <v>1577.0550000000001</v>
+      </c>
       <c r="H42">
         <v>1545.3679999999999</v>
       </c>
@@ -3499,6 +6920,9 @@
       <c r="E43">
         <v>232.65299999999999</v>
       </c>
+      <c r="G43">
+        <v>1565.7919999999999</v>
+      </c>
       <c r="H43">
         <v>1547.1769999999999</v>
       </c>
@@ -3519,6 +6943,9 @@
       <c r="E44">
         <v>233.55799999999999</v>
       </c>
+      <c r="G44">
+        <v>1575.0050000000001</v>
+      </c>
       <c r="H44">
         <v>1548.43</v>
       </c>
@@ -3539,6 +6966,9 @@
       <c r="E45">
         <v>233.56399999999999</v>
       </c>
+      <c r="G45">
+        <v>1575.825</v>
+      </c>
       <c r="H45">
         <v>1549.683</v>
       </c>
@@ -3559,6 +6989,9 @@
       <c r="E46">
         <v>233.36799999999999</v>
       </c>
+      <c r="G46">
+        <v>1570.78</v>
+      </c>
       <c r="H46">
         <v>1551.837</v>
       </c>
@@ -3579,6 +7012,9 @@
       <c r="E47">
         <v>233.714</v>
       </c>
+      <c r="G47">
+        <v>1564.3409999999999</v>
+      </c>
       <c r="H47">
         <v>1552.8920000000001</v>
       </c>
@@ -3599,6 +7035,9 @@
       <c r="E48">
         <v>233.399</v>
       </c>
+      <c r="G48">
+        <v>1572.962</v>
+      </c>
       <c r="H48">
         <v>1542.067</v>
       </c>
@@ -3619,6 +7058,9 @@
       <c r="E49">
         <v>233.47900000000001</v>
       </c>
+      <c r="G49">
+        <v>1572.192</v>
+      </c>
       <c r="H49">
         <v>1542.4680000000001</v>
       </c>
@@ -3639,6 +7081,9 @@
       <c r="E50">
         <v>233.49799999999999</v>
       </c>
+      <c r="G50">
+        <v>1565.885</v>
+      </c>
       <c r="H50">
         <v>1542.4690000000001</v>
       </c>
@@ -3652,7 +7097,7 @@
         <v>213.85514999999995</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:H52" si="8">AVERAGE(C31:C50)</f>
+        <f t="shared" ref="C52:D52" si="8">AVERAGE(C31:C50)</f>
         <v>1556.5980000000002</v>
       </c>
       <c r="D52">
@@ -3667,9 +7112,9 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" t="e">
+      <c r="G52">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1580.3512500000002</v>
       </c>
       <c r="H52">
         <f t="shared" si="9"/>
@@ -3685,7 +7130,7 @@
         <v>216.06700000000001</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:H53" si="10">MAX(C31:C50)</f>
+        <f t="shared" ref="C53:D53" si="10">MAX(C31:C50)</f>
         <v>1617.9839999999999</v>
       </c>
       <c r="D53">
@@ -3702,7 +7147,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1614.152</v>
       </c>
       <c r="H53">
         <f t="shared" si="11"/>
@@ -3718,7 +7163,7 @@
         <v>210.57900000000001</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:H54" si="12">MIN(C31:C50)</f>
+        <f t="shared" ref="C54:D54" si="12">MIN(C31:C50)</f>
         <v>1541.5350000000001</v>
       </c>
       <c r="D54">
@@ -3735,7 +7180,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1564.3409999999999</v>
       </c>
       <c r="H54">
         <f t="shared" si="13"/>
@@ -3751,7 +7196,7 @@
         <v>1.3625356499440366</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:H55" si="14">_xlfn.STDEV.S(C31:C50)</f>
+        <f t="shared" ref="C55:D55" si="14">_xlfn.STDEV.S(C31:C50)</f>
         <v>16.827286740667098</v>
       </c>
       <c r="D55">
@@ -3766,9 +7211,9 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" t="e">
+      <c r="G55">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>13.364414515992225</v>
       </c>
       <c r="H55">
         <f t="shared" si="15"/>
@@ -3776,16 +7221,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -3796,19 +7241,22 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>7458510</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>8996450</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>8913410</v>
       </c>
-      <c r="H59" s="4">
+      <c r="G59" s="3">
+        <v>2686810000</v>
+      </c>
+      <c r="H59" s="3">
         <v>2662050000</v>
       </c>
     </row>
@@ -3816,19 +7264,22 @@
       <c r="A60">
         <v>2</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>7458510</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>9005920</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>8919250</v>
       </c>
-      <c r="H60" s="4">
+      <c r="G60" s="3">
+        <v>2685170000</v>
+      </c>
+      <c r="H60" s="3">
         <v>2668760000</v>
       </c>
     </row>
@@ -3836,19 +7287,22 @@
       <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>7458510</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>8981130</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>8911780</v>
       </c>
-      <c r="H61" s="4">
+      <c r="G61" s="3">
+        <v>2676730000</v>
+      </c>
+      <c r="H61" s="3">
         <v>2664450000</v>
       </c>
     </row>
@@ -3856,19 +7310,22 @@
       <c r="A62">
         <v>4</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>7458510</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>8991520</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>8908170</v>
       </c>
-      <c r="H62" s="4">
+      <c r="G62" s="3">
+        <v>2670860000</v>
+      </c>
+      <c r="H62" s="3">
         <v>2673610000</v>
       </c>
     </row>
@@ -3876,19 +7333,22 @@
       <c r="A63">
         <v>5</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>7458510</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>8969440</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>8903760</v>
       </c>
-      <c r="H63" s="4">
+      <c r="G63" s="3">
+        <v>2670680000</v>
+      </c>
+      <c r="H63" s="3">
         <v>2678030000</v>
       </c>
     </row>
@@ -3896,19 +7356,22 @@
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>7458510</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>8979340</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>8915510</v>
       </c>
-      <c r="H64" s="4">
+      <c r="G64" s="3">
+        <v>2688890000</v>
+      </c>
+      <c r="H64" s="3">
         <v>2671000000</v>
       </c>
     </row>
@@ -3916,19 +7379,22 @@
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>7458510</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>8986580</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>8907140</v>
       </c>
-      <c r="H65" s="4">
+      <c r="G65" s="3">
+        <v>2696500000</v>
+      </c>
+      <c r="H65" s="3">
         <v>2657760000</v>
       </c>
     </row>
@@ -3936,19 +7402,22 @@
       <c r="A66">
         <v>8</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>7458510</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>8998900</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>8901800</v>
       </c>
-      <c r="H66" s="4">
+      <c r="G66" s="3">
+        <v>2679740000</v>
+      </c>
+      <c r="H66" s="3">
         <v>2675150000</v>
       </c>
     </row>
@@ -3956,19 +7425,22 @@
       <c r="A67">
         <v>9</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>7458510</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>8984860</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>8920720</v>
       </c>
-      <c r="H67" s="4">
+      <c r="G67" s="3">
+        <v>2699210000</v>
+      </c>
+      <c r="H67" s="3">
         <v>2665790000</v>
       </c>
     </row>
@@ -3976,19 +7448,22 @@
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>7458510</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>8981100</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>8930280</v>
       </c>
-      <c r="H68" s="4">
+      <c r="G68" s="3">
+        <v>2685850000</v>
+      </c>
+      <c r="H68" s="3">
         <v>2663730000</v>
       </c>
     </row>
@@ -3996,19 +7471,22 @@
       <c r="A69">
         <v>11</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>7458510</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>9006360</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>8934570</v>
       </c>
-      <c r="H69" s="4">
+      <c r="G69" s="3">
+        <v>2680020000</v>
+      </c>
+      <c r="H69" s="3">
         <v>2661790000</v>
       </c>
     </row>
@@ -4016,19 +7494,22 @@
       <c r="A70">
         <v>12</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>7458510</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>8999700</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>8919890</v>
       </c>
-      <c r="H70" s="4">
+      <c r="G70" s="3">
+        <v>2691460000</v>
+      </c>
+      <c r="H70" s="3">
         <v>2669690000</v>
       </c>
     </row>
@@ -4036,19 +7517,22 @@
       <c r="A71">
         <v>13</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>7458510</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>8979400</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>8917050</v>
       </c>
-      <c r="H71" s="4">
+      <c r="G71" s="3">
+        <v>2668380000</v>
+      </c>
+      <c r="H71" s="3">
         <v>2669000000</v>
       </c>
     </row>
@@ -4056,19 +7540,22 @@
       <c r="A72">
         <v>14</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>7458510</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>8976350</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>8917230</v>
       </c>
-      <c r="H72" s="4">
+      <c r="G72" s="3">
+        <v>2685460000</v>
+      </c>
+      <c r="H72" s="3">
         <v>2672650000</v>
       </c>
     </row>
@@ -4076,19 +7563,22 @@
       <c r="A73">
         <v>15</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>7458510</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>8988930</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>8930940</v>
       </c>
-      <c r="H73" s="4">
+      <c r="G73" s="3">
+        <v>2689050000</v>
+      </c>
+      <c r="H73" s="3">
         <v>2676280000</v>
       </c>
     </row>
@@ -4096,19 +7586,22 @@
       <c r="A74">
         <v>16</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>7458510</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>8994930</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>8932260</v>
       </c>
-      <c r="H74" s="4">
+      <c r="G74" s="3">
+        <v>2680190000</v>
+      </c>
+      <c r="H74" s="3">
         <v>2680880000</v>
       </c>
     </row>
@@ -4116,19 +7609,22 @@
       <c r="A75">
         <v>17</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>7458510</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>9014820</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>8930640</v>
       </c>
-      <c r="H75" s="4">
+      <c r="G75" s="3">
+        <v>2666200000</v>
+      </c>
+      <c r="H75" s="3">
         <v>2680400000</v>
       </c>
     </row>
@@ -4136,19 +7632,22 @@
       <c r="A76">
         <v>18</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>7458510</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>8982470</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>8938600</v>
       </c>
-      <c r="H76" s="4">
+      <c r="G76" s="3">
+        <v>2683410000</v>
+      </c>
+      <c r="H76" s="3">
         <v>2662290000</v>
       </c>
     </row>
@@ -4156,19 +7655,22 @@
       <c r="A77">
         <v>19</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>7458510</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>8981570</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>8929620</v>
       </c>
-      <c r="H77" s="4">
+      <c r="G77" s="3">
+        <v>2682390000</v>
+      </c>
+      <c r="H77" s="3">
         <v>2663170000</v>
       </c>
     </row>
@@ -4176,19 +7678,22 @@
       <c r="A78">
         <v>20</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>7458510</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>2663500000</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>8989940</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>8919150</v>
       </c>
-      <c r="H78" s="4">
+      <c r="G78" s="3">
+        <v>2669740000</v>
+      </c>
+      <c r="H78" s="3">
         <v>2662050000</v>
       </c>
     </row>
@@ -4201,7 +7706,7 @@
         <v>7458510</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:H80" si="16">AVERAGE(C59:C78)</f>
+        <f t="shared" ref="C80:D80" si="16">AVERAGE(C59:C78)</f>
         <v>2663500000</v>
       </c>
       <c r="D80">
@@ -4216,9 +7721,9 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G80" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="G80">
+        <f>AVERAGE(G59:G69)</f>
+        <v>2683678181.818182</v>
       </c>
       <c r="H80">
         <f t="shared" si="17"/>
@@ -4234,7 +7739,7 @@
         <v>7458510</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:H81" si="18">MAX(C59:C78)</f>
+        <f t="shared" ref="C81:D81" si="18">MAX(C59:C78)</f>
         <v>2663500000</v>
       </c>
       <c r="D81">
@@ -4250,8 +7755,8 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>MAX(G59:G69)</f>
+        <v>2699210000</v>
       </c>
       <c r="H81">
         <f t="shared" si="19"/>
@@ -4267,7 +7772,7 @@
         <v>7458510</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:H82" si="20">MIN(C59:C78)</f>
+        <f t="shared" ref="C82:D82" si="20">MIN(C59:C78)</f>
         <v>2663500000</v>
       </c>
       <c r="D82">
@@ -4283,8 +7788,8 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>MIN(G59:G69)</f>
+        <v>2670680000</v>
       </c>
       <c r="H82">
         <f t="shared" si="21"/>
@@ -4300,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:H83" si="22">_xlfn.STDEV.S(C59:C78)</f>
+        <f t="shared" ref="C83:D83" si="22">_xlfn.STDEV.S(C59:C78)</f>
         <v>0</v>
       </c>
       <c r="D83">
@@ -4315,9 +7820,9 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G83" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+      <c r="G83">
+        <f>_xlfn.STDEV.S(G59:G69)</f>
+        <v>9273496.447599275</v>
       </c>
       <c r="H83">
         <f t="shared" si="23"/>
@@ -4332,5 +7837,6 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>